--- a/design/工资个人所得税.xlsx
+++ b/design/工资个人所得税.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyou.chen\Desktop\核算引擎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\southGrid\git\blockly.poc\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828AF505-9FE8-4EFE-8725-23DCDF44CD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2606911-4BF4-4FB1-9421-65A44248A045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>中文名称</t>
   </si>
@@ -126,13 +126,28 @@
   </si>
   <si>
     <t>calculateTax</t>
+  </si>
+  <si>
+    <t>返回类型</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>社保</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,11 +167,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
     </font>
     <font>
       <sz val="12"/>
@@ -218,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -227,7 +237,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -235,8 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -522,19 +530,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,8 +553,14 @@
       <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -555,8 +570,14 @@
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -566,8 +587,14 @@
       <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -577,8 +604,14 @@
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -588,8 +621,14 @@
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -599,8 +638,14 @@
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -610,8 +655,14 @@
       <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -621,8 +672,14 @@
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -632,8 +689,14 @@
       <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -643,9 +706,15 @@
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -654,9 +723,15 @@
       <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -665,26 +740,44 @@
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>22</v>
       </c>
     </row>
